--- a/cmip6/models/mcm-ua-1-0/cmip6_ua_mcm-ua-1-0_seaice.xlsx
+++ b/cmip6/models/mcm-ua-1-0/cmip6_ua_mcm-ua-1-0_seaice.xlsx
@@ -43,7 +43,7 @@
     <t>MCM-UA-1-0</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Sea Ice</t>

--- a/cmip6/models/mcm-ua-1-0/cmip6_ua_mcm-ua-1-0_seaice.xlsx
+++ b/cmip6/models/mcm-ua-1-0/cmip6_ua_mcm-ua-1-0_seaice.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="532">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -235,10 +235,10 @@
     <t>Salinity</t>
   </si>
   <si>
-    <t>Snow temperature</t>
-  </si>
-  <si>
-    <t>Snow depth</t>
+    <t>Snow temperature: Snow on ice temperature</t>
+  </si>
+  <si>
+    <t>Snow depth: Snow on ice thickness</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -265,10 +265,10 @@
     <t>cmip6.seaice.key_properties.seawater_properties.ocean_freezing_point</t>
   </si>
   <si>
-    <t>TEOS-10</t>
-  </si>
-  <si>
-    <t>Constant</t>
+    <t>TEOS-10: Thermodynamic equation of seawater 2010.</t>
+  </si>
+  <si>
+    <t>Constant: Constant value of seawater freezing point is used.</t>
   </si>
   <si>
     <t xml:space="preserve">1.3.1.2 </t>
@@ -633,13 +633,13 @@
     <t>cmip6.seaice.grid.discretisation.horizontal.grid</t>
   </si>
   <si>
-    <t>Ocean grid</t>
-  </si>
-  <si>
-    <t>Atmosphere Grid</t>
-  </si>
-  <si>
-    <t>Own Grid</t>
+    <t>Ocean grid: Sea ice is horizontally discretised on the ocean grid.</t>
+  </si>
+  <si>
+    <t>Atmosphere Grid: Sea ice is horizontally discretised on the atmospheric grid.</t>
+  </si>
+  <si>
+    <t>Own Grid: Sea ice is horizontally discretised on its own independent grid.</t>
   </si>
   <si>
     <t>2.1.2.2 *</t>
@@ -660,7 +660,7 @@
     <t>Unstructured grid</t>
   </si>
   <si>
-    <t>Adaptive grid</t>
+    <t>Adaptive grid: Computational grid changes during the run</t>
   </si>
   <si>
     <t>2.1.2.3 *</t>
@@ -741,13 +741,13 @@
     <t>cmip6.seaice.grid.discretisation.vertical.layering</t>
   </si>
   <si>
-    <t>Zero-layer</t>
-  </si>
-  <si>
-    <t>Two-layers</t>
-  </si>
-  <si>
-    <t>Multi-layers</t>
+    <t>Zero-layer: Simulation has no internal ice thermodynamics.</t>
+  </si>
+  <si>
+    <t>Two-layers: Simulation uses two layers (i.e. one ice and one snow layer).</t>
+  </si>
+  <si>
+    <t>Multi-layers: Simulation uses more than two layers.</t>
   </si>
   <si>
     <t>2.1.3.2 *</t>
@@ -936,7 +936,7 @@
     <t>cmip6.seaice.dynamics.horizontal_transport</t>
   </si>
   <si>
-    <t>Incremental Re-mapping</t>
+    <t>Incremental Re-mapping: (including Semi-Lagrangian)</t>
   </si>
   <si>
     <t>Prather</t>
@@ -1011,10 +1011,10 @@
     <t>Mohr-Coloumb</t>
   </si>
   <si>
-    <t>Visco-plastic</t>
-  </si>
-  <si>
-    <t>Elastic-visco-plastic</t>
+    <t>Visco-plastic: VP</t>
+  </si>
+  <si>
+    <t>Elastic-visco-plastic: EVP</t>
   </si>
   <si>
     <t>Elastic-anisotropic-plastic</t>
@@ -1134,13 +1134,13 @@
     <t>cmip6.seaice.thermodynamics.energy.basal_heat_flux</t>
   </si>
   <si>
-    <t>Heat Reservoir</t>
-  </si>
-  <si>
-    <t>Thermal Fixed Salinity</t>
-  </si>
-  <si>
-    <t>Thermal Varying Salinity</t>
+    <t>Heat Reservoir: Brine inclusions treated as a heat reservoir.</t>
+  </si>
+  <si>
+    <t>Thermal Fixed Salinity: Thermal properties depend on S-T (with fixed salinity).</t>
+  </si>
+  <si>
+    <t>Thermal Varying Salinity: Thermal properties depend on S-T (with varying salinity.</t>
   </si>
   <si>
     <t xml:space="preserve">4.2.1.5 </t>
@@ -1311,6 +1311,9 @@
     <t>cmip6.seaice.thermodynamics.salt.mass_transport.salinity_type</t>
   </si>
   <si>
+    <t>Constant</t>
+  </si>
+  <si>
     <t>Prescribed salinity profile</t>
   </si>
   <si>
@@ -1608,10 +1611,10 @@
     <t>Delta-Eddington</t>
   </si>
   <si>
-    <t>Parameterized</t>
-  </si>
-  <si>
-    <t>Multi-band albedo</t>
+    <t>Parameterized: Sea ice albedo is parameterized.</t>
+  </si>
+  <si>
+    <t>Multi-band albedo: Albedo value has a spectral dependence.</t>
   </si>
   <si>
     <t>5.1.1.4 *</t>
@@ -1629,7 +1632,7 @@
     <t>Exponential attenuation</t>
   </si>
   <si>
-    <t>Ice radiation transmission per category</t>
+    <t>Ice radiation transmission per category: Radiation transmission through ice is different for each sea ice category.</t>
   </si>
 </sst>
 </file>
@@ -4679,13 +4682,13 @@
     <row r="93" spans="1:30" ht="24" customHeight="1">
       <c r="B93" s="11"/>
       <c r="AA93" s="6" t="s">
-        <v>82</v>
+        <v>424</v>
       </c>
       <c r="AB93" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AC93" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AD93" s="6" t="s">
         <v>73</v>
@@ -4693,10 +4696,10 @@
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="24" customHeight="1">
@@ -4704,10 +4707,10 @@
         <v>85</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="24" customHeight="1">
@@ -4715,7 +4718,7 @@
     </row>
     <row r="99" spans="1:30" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>226</v>
@@ -4726,10 +4729,10 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="24" customHeight="1">
@@ -4742,20 +4745,20 @@
     </row>
     <row r="105" spans="1:30" ht="24" customHeight="1">
       <c r="A105" s="12" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="24" customHeight="1">
       <c r="B106" s="13" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="24" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>421</v>
@@ -4766,22 +4769,22 @@
         <v>59</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="110" spans="1:30" ht="24" customHeight="1">
       <c r="B110" s="11"/>
       <c r="AA110" s="6" t="s">
-        <v>82</v>
+        <v>424</v>
       </c>
       <c r="AB110" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AC110" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AD110" s="6" t="s">
         <v>73</v>
@@ -4789,10 +4792,10 @@
     </row>
     <row r="112" spans="1:30" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="24" customHeight="1">
@@ -4800,10 +4803,10 @@
         <v>85</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="114" spans="1:29" ht="24" customHeight="1">
@@ -4811,7 +4814,7 @@
     </row>
     <row r="116" spans="1:29" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>226</v>
@@ -4822,10 +4825,10 @@
         <v>41</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="118" spans="1:29" ht="24" customHeight="1">
@@ -4838,23 +4841,23 @@
     </row>
     <row r="122" spans="1:29" ht="24" customHeight="1">
       <c r="A122" s="12" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="123" spans="1:29" ht="24" customHeight="1">
       <c r="B123" s="13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="125" spans="1:29" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="126" spans="1:29" ht="24" customHeight="1">
@@ -4862,19 +4865,19 @@
         <v>59</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="127" spans="1:29" ht="24" customHeight="1">
       <c r="B127" s="11"/>
       <c r="AA127" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AB127" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AC127" s="6" t="s">
         <v>73</v>
@@ -4882,23 +4885,23 @@
     </row>
     <row r="130" spans="1:29" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="131" spans="1:29" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="133" spans="1:29" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="134" spans="1:29" ht="24" customHeight="1">
@@ -4906,19 +4909,19 @@
         <v>59</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="135" spans="1:29" ht="24" customHeight="1">
       <c r="B135" s="11"/>
       <c r="AA135" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AB135" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC135" s="6" t="s">
         <v>73</v>
@@ -4926,7 +4929,7 @@
     </row>
     <row r="137" spans="1:29" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>226</v>
@@ -4937,10 +4940,10 @@
         <v>41</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="139" spans="1:29" ht="24" customHeight="1">
@@ -4953,23 +4956,23 @@
     </row>
     <row r="143" spans="1:29" ht="24" customHeight="1">
       <c r="A143" s="12" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="144" spans="1:29" ht="24" customHeight="1">
       <c r="B144" s="13" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="146" spans="1:30" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="147" spans="1:30" ht="24" customHeight="1">
@@ -4977,10 +4980,10 @@
         <v>178</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="148" spans="1:30" ht="24" customHeight="1">
@@ -4988,10 +4991,10 @@
     </row>
     <row r="150" spans="1:30" ht="24" customHeight="1">
       <c r="A150" s="9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="151" spans="1:30" ht="24" customHeight="1">
@@ -4999,19 +5002,19 @@
         <v>59</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="152" spans="1:30" ht="24" customHeight="1">
       <c r="B152" s="11"/>
       <c r="AA152" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AB152" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AC152" s="6" t="s">
         <v>73</v>
@@ -5019,10 +5022,10 @@
     </row>
     <row r="154" spans="1:30" ht="24" customHeight="1">
       <c r="A154" s="9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="155" spans="1:30" ht="24" customHeight="1">
@@ -5030,10 +5033,10 @@
         <v>59</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="156" spans="1:30" ht="24" customHeight="1">
@@ -5044,13 +5047,13 @@
     <row r="157" spans="1:30" ht="24" customHeight="1">
       <c r="B157" s="11"/>
       <c r="AA157" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AB157" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AC157" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AD157" s="6" t="s">
         <v>73</v>
@@ -5058,23 +5061,23 @@
     </row>
     <row r="160" spans="1:30" ht="24" customHeight="1">
       <c r="A160" s="12" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
       <c r="B161" s="13" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
@@ -5082,10 +5085,10 @@
         <v>178</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
@@ -5093,10 +5096,10 @@
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
       <c r="A167" s="9" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
@@ -5104,10 +5107,10 @@
         <v>41</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
@@ -5120,10 +5123,10 @@
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
       <c r="A172" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
@@ -5131,10 +5134,10 @@
         <v>178</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
@@ -5142,10 +5145,10 @@
     </row>
     <row r="176" spans="1:3" ht="24" customHeight="1">
       <c r="A176" s="9" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="177" spans="1:29" ht="24" customHeight="1">
@@ -5153,10 +5156,10 @@
         <v>41</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
@@ -5169,7 +5172,7 @@
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
       <c r="A181" s="9" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B181" s="9" t="s">
         <v>314</v>
@@ -5180,10 +5183,10 @@
         <v>41</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="183" spans="1:29" ht="24" customHeight="1">
@@ -5191,7 +5194,7 @@
     </row>
     <row r="185" spans="1:29" ht="24" customHeight="1">
       <c r="A185" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B185" s="9" t="s">
         <v>356</v>
@@ -5202,19 +5205,19 @@
         <v>59</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="187" spans="1:29" ht="24" customHeight="1">
       <c r="B187" s="11"/>
       <c r="AA187" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AB187" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AC187" s="6" t="s">
         <v>73</v>
@@ -5306,20 +5309,20 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -5330,10 +5333,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -5341,7 +5344,7 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>50</v>
@@ -5352,10 +5355,10 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
@@ -5368,10 +5371,10 @@
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
@@ -5379,22 +5382,22 @@
         <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AD15" s="6" t="s">
         <v>73</v>
@@ -5402,10 +5405,10 @@
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
@@ -5413,10 +5416,10 @@
         <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -5427,13 +5430,13 @@
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AD20" s="6" t="s">
         <v>73</v>

--- a/cmip6/models/mcm-ua-1-0/cmip6_ua_mcm-ua-1-0_seaice.xlsx
+++ b/cmip6/models/mcm-ua-1-0/cmip6_ua_mcm-ua-1-0_seaice.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ron\Documents\WPDocs\CMIP6_variable_tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B09ECF-9231-4973-A35E-73889FB4DA00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -15,12 +21,12 @@
     <sheet name="4. Thermodynamics" sheetId="6" r:id="rId6"/>
     <sheet name="5. Radiative Processes" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="568">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -1634,11 +1640,119 @@
   <si>
     <t>Ice radiation transmission per category: Radiation transmission through ice is different for each sea ice category.</t>
   </si>
+  <si>
+    <t>Bryan-Cox</t>
+  </si>
+  <si>
+    <t>thermodynamic</t>
+  </si>
+  <si>
+    <t>Ice has no temperature. Ice covers entire grid box, no leads, concentration = 1 or 0. Ice moves with ocean currents only, no wind forcing. Snow that falls on sea ice is added to thickness. Ice can melt from top or bottom.</t>
+  </si>
+  <si>
+    <t>sea ice thickness</t>
+  </si>
+  <si>
+    <t>sea ice v-velocity</t>
+  </si>
+  <si>
+    <t>N40</t>
+  </si>
+  <si>
+    <t>2.3 deg</t>
+  </si>
+  <si>
+    <t>none, flux adjustments used</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Simple sea ice model from 1970's and 80's.</t>
+  </si>
+  <si>
+    <t>ice movement with wind, leads, etc.</t>
+  </si>
+  <si>
+    <t>Model conserves heat and water</t>
+  </si>
+  <si>
+    <t>thickness</t>
+  </si>
+  <si>
+    <t>heat and water fluxes were adjusted in an attempt to maintain sea ice edge.</t>
+  </si>
+  <si>
+    <t>Bryan Cox</t>
+  </si>
+  <si>
+    <t>192 east-west by 80 north-south</t>
+  </si>
+  <si>
+    <t>Ronald J Stouffer</t>
+  </si>
+  <si>
+    <t>Bryan and Lewis?</t>
+  </si>
+  <si>
+    <t>Sea ice on the ocean grid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ice moves with ocean currents only, no wind forcing. If ice greater than 4m thick, divergence only allowed.</t>
+  </si>
+  <si>
+    <t>transport via ocean currents only</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Ice moves with ocean currents only, no wind forcing. If ice greater than 4m thick, divergence only allowed.</t>
+  </si>
+  <si>
+    <t>Ice has no temperature. Ocean must be at -2C. Heat coinduction through the ice is a square root function. Ice can melt from above or below, but all melt is applied to bottom of ice.</t>
+  </si>
+  <si>
+    <t>all melt occurs at bottom of ice.</t>
+  </si>
+  <si>
+    <t>assumed to be same temperature as ocean.</t>
+  </si>
+  <si>
+    <t>Snow fals on the ice and is added to ice thickness. Rain is added directly to ocean under ice.</t>
+  </si>
+  <si>
+    <t>Temperature falls below -2C</t>
+  </si>
+  <si>
+    <t>Ice can sublimate if surface relative humidity less than 100%.</t>
+  </si>
+  <si>
+    <t>Ocean water falls below -2C</t>
+  </si>
+  <si>
+    <t>ice has no salinity</t>
+  </si>
+  <si>
+    <t>Sea ice is freshwater when melted. Ice has no salinity.</t>
+  </si>
+  <si>
+    <t>cocnetration = 1 or 0, no thickness categories</t>
+  </si>
+  <si>
+    <t>Surface temperature greater than 0C</t>
+  </si>
+  <si>
+    <t>no snow on ice.</t>
+  </si>
+  <si>
+    <t>Surface albedo a square root function of thickness. If surface temperature goes above freezing, albedo is reduced. Thee is no snow on sea ice in this model.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -1835,6 +1949,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1881,7 +2003,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1913,9 +2035,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1947,6 +2087,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2122,10 +2280,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2134,12 +2292,12 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="33.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2147,7 +2305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="20.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2155,7 +2313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="20.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2163,7 +2321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="20.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2171,7 +2329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="20.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2179,27 +2337,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="20.25">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="20.25">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="20.25">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="20.25">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="18">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -2207,7 +2365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="18">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -2215,7 +2373,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="18">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -2223,7 +2381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="18">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -2231,13 +2389,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="20.25">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="20.25">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -2245,18 +2403,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="B15" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2265,7 +2425,7 @@
     <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -2276,7 +2436,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
@@ -2292,7 +2452,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
@@ -2300,11 +2460,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="11"/>
+    <row r="9" spans="1:2" ht="18">
+      <c r="A9" s="11" t="s">
+        <v>548</v>
+      </c>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
@@ -2320,7 +2482,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="15.75">
       <c r="A16" s="10" t="s">
         <v>30</v>
       </c>
@@ -2328,32 +2490,36 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11"/>
+    <row r="17" spans="1:2" ht="18">
+      <c r="A17" s="11" t="s">
+        <v>549</v>
+      </c>
       <c r="B17" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Top Level,Key Properties,Grid,Dynamics,Thermodynamics,Radiative Processes"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A13" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD149"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AL151"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2396,7 +2562,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -2423,7 +2591,9 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
@@ -2449,8 +2619,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
+    <row r="16" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B16" s="11" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="19" spans="1:38" ht="24" customHeight="1">
       <c r="A19" s="12" t="s">
@@ -2490,718 +2662,752 @@
       </c>
     </row>
     <row r="25" spans="1:38" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
-      <c r="AA25" s="6" t="s">
+      <c r="B25" s="10" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" ht="24" customHeight="1">
+      <c r="B26" s="10" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" ht="24" customHeight="1">
+      <c r="B27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA27" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AB25" s="6" t="s">
+      <c r="AB27" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AC25" s="6" t="s">
+      <c r="AC27" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AD25" s="6" t="s">
+      <c r="AD27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AE25" s="6" t="s">
+      <c r="AE27" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AF25" s="6" t="s">
+      <c r="AF27" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AG25" s="6" t="s">
+      <c r="AG27" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AH25" s="6" t="s">
+      <c r="AH27" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AI25" s="6" t="s">
+      <c r="AI27" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AJ25" s="6" t="s">
+      <c r="AJ27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AK25" s="6" t="s">
+      <c r="AK27" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AL25" s="6" t="s">
+      <c r="AL27" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="24" customHeight="1">
-      <c r="A28" s="12" t="s">
+    <row r="30" spans="1:38" ht="24" customHeight="1">
+      <c r="A30" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B30" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="24" customHeight="1">
-      <c r="B29" s="13" t="s">
+    <row r="31" spans="1:38" ht="24" customHeight="1">
+      <c r="B31" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="24" customHeight="1">
-      <c r="A31" s="9" t="s">
+    <row r="33" spans="1:29" ht="24" customHeight="1">
+      <c r="A33" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B33" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="24" customHeight="1">
-      <c r="A32" s="14" t="s">
+    <row r="34" spans="1:29" ht="24" customHeight="1">
+      <c r="A34" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B34" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="24" customHeight="1">
-      <c r="B33" s="11"/>
-      <c r="AA33" s="6" t="s">
+    <row r="35" spans="1:29" ht="24" customHeight="1">
+      <c r="B35" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA35" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AB33" s="6" t="s">
+      <c r="AB35" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AC33" s="6" t="s">
+      <c r="AC35" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="24" customHeight="1">
-      <c r="A35" s="9" t="s">
+    <row r="37" spans="1:29" ht="24" customHeight="1">
+      <c r="A37" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B37" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="24" customHeight="1">
-      <c r="A36" s="14" t="s">
+    <row r="38" spans="1:29" ht="24" customHeight="1">
+      <c r="A38" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B38" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="24" customHeight="1">
-      <c r="B37" s="11"/>
-    </row>
-    <row r="40" spans="1:29" ht="24" customHeight="1">
-      <c r="A40" s="12" t="s">
+    <row r="39" spans="1:29" ht="24" customHeight="1">
+      <c r="B39" s="11">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="24" customHeight="1">
+      <c r="A42" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B42" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="24" customHeight="1">
-      <c r="B41" s="13" t="s">
+    <row r="43" spans="1:29" ht="24" customHeight="1">
+      <c r="B43" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="24" customHeight="1">
-      <c r="A43" s="9" t="s">
+    <row r="45" spans="1:29" ht="24" customHeight="1">
+      <c r="A45" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B45" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="24" customHeight="1">
-      <c r="A44" s="14" t="s">
+    <row r="46" spans="1:29" ht="24" customHeight="1">
+      <c r="A46" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B46" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="24" customHeight="1">
-      <c r="B45" s="11"/>
-    </row>
     <row r="47" spans="1:29" ht="24" customHeight="1">
-      <c r="A47" s="9" t="s">
+      <c r="B47" s="11" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="24" customHeight="1">
+      <c r="A49" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B49" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="24" customHeight="1">
-      <c r="A48" s="14" t="s">
+    <row r="50" spans="1:3" ht="24" customHeight="1">
+      <c r="A50" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B50" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="B49" s="11"/>
-    </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="9" t="s">
+      <c r="B51" s="11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="24" customHeight="1">
+      <c r="A53" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B53" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="14" t="s">
+    <row r="54" spans="1:3" ht="24" customHeight="1">
+      <c r="A54" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B54" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="B53" s="11"/>
-    </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="12" t="s">
+    <row r="55" spans="1:3" ht="24" customHeight="1">
+      <c r="B55" s="11">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="24" customHeight="1">
+      <c r="A58" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B58" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="B57" s="13" t="s">
+    <row r="59" spans="1:3" ht="24" customHeight="1">
+      <c r="B59" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="A59" s="9" t="s">
+    <row r="61" spans="1:3" ht="24" customHeight="1">
+      <c r="A61" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B61" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="24" customHeight="1">
-      <c r="A60" s="14" t="s">
+    <row r="62" spans="1:3" ht="24" customHeight="1">
+      <c r="A62" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B62" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="B61" s="8" t="s">
+    <row r="63" spans="1:3" ht="24" customHeight="1">
+      <c r="B63" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="178" customHeight="1">
-      <c r="B62" s="11"/>
-    </row>
-    <row r="64" spans="1:3" ht="24" customHeight="1">
-      <c r="A64" s="9" t="s">
+    <row r="64" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B64" s="11" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="24" customHeight="1">
+      <c r="A66" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B66" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="24" customHeight="1">
-      <c r="A65" s="14" t="s">
+    <row r="67" spans="1:3" ht="24" customHeight="1">
+      <c r="A67" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B67" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="B66" s="11"/>
-    </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="A68" s="9" t="s">
+      <c r="B68" s="11" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="24" customHeight="1">
+      <c r="A70" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B70" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="A69" s="14" t="s">
+    <row r="71" spans="1:3" ht="24" customHeight="1">
+      <c r="A71" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B71" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="B70" s="8" t="s">
+    <row r="72" spans="1:3" ht="24" customHeight="1">
+      <c r="B72" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
-    </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
-      <c r="A73" s="9" t="s">
+      <c r="B73" s="11"/>
+    </row>
+    <row r="75" spans="1:3" ht="24" customHeight="1">
+      <c r="A75" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B75" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="24" customHeight="1">
-      <c r="A74" s="14" t="s">
+    <row r="76" spans="1:3" ht="24" customHeight="1">
+      <c r="A76" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B76" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="B75" s="8" t="s">
+    <row r="77" spans="1:3" ht="24" customHeight="1">
+      <c r="B77" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="24" customHeight="1">
-      <c r="B76" s="11"/>
-    </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
-      <c r="A78" s="9" t="s">
+      <c r="B78" s="11" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="24" customHeight="1">
+      <c r="A80" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B80" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1">
-      <c r="A79" s="14" t="s">
+    <row r="81" spans="1:3" ht="24" customHeight="1">
+      <c r="A81" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B81" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="24" customHeight="1">
-      <c r="B80" s="8" t="s">
+    <row r="82" spans="1:3" ht="24" customHeight="1">
+      <c r="B82" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="B81" s="11"/>
-    </row>
-    <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="A84" s="12" t="s">
+    <row r="83" spans="1:3" ht="24" customHeight="1">
+      <c r="B83" s="11" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="24" customHeight="1">
+      <c r="A86" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B86" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="B85" s="13" t="s">
+    <row r="87" spans="1:3" ht="24" customHeight="1">
+      <c r="B87" s="13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="A87" s="9" t="s">
+    <row r="89" spans="1:3" ht="24" customHeight="1">
+      <c r="A89" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B89" s="9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="A88" s="14" t="s">
+    <row r="90" spans="1:3" ht="24" customHeight="1">
+      <c r="A90" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B90" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C90" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="B89" s="11"/>
-    </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="A91" s="9" t="s">
+      <c r="B91" s="11"/>
+    </row>
+    <row r="93" spans="1:3" ht="24" customHeight="1">
+      <c r="A93" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B93" s="9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="24" customHeight="1">
-      <c r="A92" s="14" t="s">
+    <row r="94" spans="1:3" ht="24" customHeight="1">
+      <c r="A94" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B94" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C94" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="B93" s="11"/>
-    </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="9" t="s">
+      <c r="B95" s="11"/>
+    </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1">
+      <c r="A97" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B97" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="A96" s="14" t="s">
+    <row r="98" spans="1:3" ht="24" customHeight="1">
+      <c r="A98" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B98" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C98" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="B97" s="11"/>
-    </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="9" t="s">
+      <c r="B99" s="11"/>
+    </row>
+    <row r="101" spans="1:3" ht="24" customHeight="1">
+      <c r="A101" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B101" s="9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="A100" s="14" t="s">
+    <row r="102" spans="1:3" ht="24" customHeight="1">
+      <c r="A102" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B102" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="C102" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="8" t="s">
+    <row r="103" spans="1:3" ht="24" customHeight="1">
+      <c r="B103" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="B102" s="11"/>
-    </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="A105" s="12" t="s">
+    <row r="104" spans="1:3" ht="24" customHeight="1">
+      <c r="B104" s="11"/>
+    </row>
+    <row r="107" spans="1:3" ht="24" customHeight="1">
+      <c r="A107" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B105" s="12" t="s">
+      <c r="B107" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="24" customHeight="1">
-      <c r="B106" s="13" t="s">
+    <row r="108" spans="1:3" ht="24" customHeight="1">
+      <c r="B108" s="13" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="9" t="s">
+    <row r="110" spans="1:3" ht="24" customHeight="1">
+      <c r="A110" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B110" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="A109" s="14" t="s">
+    <row r="111" spans="1:3" ht="24" customHeight="1">
+      <c r="A111" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B111" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C111" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="24" customHeight="1">
-      <c r="B110" s="8" t="s">
+    <row r="112" spans="1:3" ht="24" customHeight="1">
+      <c r="B112" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="178" customHeight="1">
-      <c r="B111" s="11"/>
-    </row>
-    <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="A113" s="9" t="s">
+    <row r="113" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B113" s="11" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="24" customHeight="1">
+      <c r="A115" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B115" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="24" customHeight="1">
-      <c r="A114" s="14" t="s">
+    <row r="116" spans="1:3" ht="24" customHeight="1">
+      <c r="A116" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B116" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="C116" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="B115" s="8" t="s">
+    <row r="117" spans="1:3" ht="24" customHeight="1">
+      <c r="B117" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="B116" s="11"/>
-    </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
-      <c r="A118" s="9" t="s">
+      <c r="B118" s="11" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="24" customHeight="1">
+      <c r="A120" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B120" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="A119" s="14" t="s">
+    <row r="121" spans="1:3" ht="24" customHeight="1">
+      <c r="A121" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B121" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C121" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="B120" s="8" t="s">
+    <row r="122" spans="1:3" ht="24" customHeight="1">
+      <c r="B122" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="B121" s="11"/>
-    </row>
-    <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="12" t="s">
+    <row r="123" spans="1:3" ht="24" customHeight="1">
+      <c r="B123" s="11" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="24" customHeight="1">
+      <c r="A126" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="B124" s="12" t="s">
+      <c r="B126" s="12" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="B125" s="13" t="s">
+    <row r="127" spans="1:3" ht="24" customHeight="1">
+      <c r="B127" s="13" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="24" customHeight="1">
-      <c r="A127" s="9" t="s">
+    <row r="129" spans="1:30" ht="24" customHeight="1">
+      <c r="A129" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B129" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="24" customHeight="1">
-      <c r="A128" s="14" t="s">
+    <row r="130" spans="1:30" ht="24" customHeight="1">
+      <c r="A130" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B130" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="C130" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="129" spans="1:30" ht="24" customHeight="1">
-      <c r="B129" s="8" t="s">
+    <row r="131" spans="1:30" ht="24" customHeight="1">
+      <c r="B131" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:30" ht="178" customHeight="1">
-      <c r="B130" s="11"/>
-    </row>
-    <row r="132" spans="1:30" ht="24" customHeight="1">
-      <c r="A132" s="9" t="s">
+    <row r="132" spans="1:30" ht="177.95" customHeight="1">
+      <c r="B132" s="11" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="134" spans="1:30" ht="24" customHeight="1">
+      <c r="A134" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B134" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="133" spans="1:30" ht="24" customHeight="1">
-      <c r="A133" s="14" t="s">
+    <row r="135" spans="1:30" ht="24" customHeight="1">
+      <c r="A135" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B135" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="C135" s="10" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="134" spans="1:30" ht="24" customHeight="1">
-      <c r="B134" s="10" t="s">
+    <row r="136" spans="1:30" ht="24" customHeight="1">
+      <c r="B136" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:30" ht="24" customHeight="1">
-      <c r="B135" s="11"/>
-      <c r="AA135" s="6" t="s">
+    <row r="137" spans="1:30" ht="24" customHeight="1">
+      <c r="B137" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="AB135" s="6" t="s">
+      <c r="AA137" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB137" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="AC135" s="6" t="s">
+      <c r="AC137" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="AD135" s="6" t="s">
+      <c r="AD137" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="137" spans="1:30" ht="24" customHeight="1">
-      <c r="A137" s="9" t="s">
+    <row r="139" spans="1:30" ht="24" customHeight="1">
+      <c r="A139" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B139" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="138" spans="1:30" ht="24" customHeight="1">
-      <c r="A138" s="14" t="s">
+    <row r="140" spans="1:30" ht="24" customHeight="1">
+      <c r="A140" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="B140" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C138" s="10" t="s">
+      <c r="C140" s="10" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="139" spans="1:30" ht="24" customHeight="1">
-      <c r="B139" s="8" t="s">
+    <row r="141" spans="1:30" ht="24" customHeight="1">
+      <c r="B141" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:30" ht="24" customHeight="1">
-      <c r="B140" s="11"/>
-    </row>
     <row r="142" spans="1:30" ht="24" customHeight="1">
-      <c r="A142" s="9" t="s">
+      <c r="B142" s="11" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="144" spans="1:30" ht="24" customHeight="1">
+      <c r="A144" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B144" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="143" spans="1:30" ht="24" customHeight="1">
-      <c r="A143" s="14" t="s">
+    <row r="145" spans="1:3" ht="24" customHeight="1">
+      <c r="A145" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B143" s="10" t="s">
+      <c r="B145" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C143" s="10" t="s">
+      <c r="C145" s="10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="144" spans="1:30" ht="24" customHeight="1">
-      <c r="B144" s="11"/>
-    </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
-      <c r="A146" s="9" t="s">
+      <c r="B146" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="24" customHeight="1">
+      <c r="A148" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B148" s="9" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="24" customHeight="1">
-      <c r="A147" s="14" t="s">
+    <row r="149" spans="1:3" ht="24" customHeight="1">
+      <c r="A149" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B149" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C147" s="10" t="s">
+      <c r="C149" s="10" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="24" customHeight="1">
-      <c r="B148" s="8" t="s">
+    <row r="150" spans="1:3" ht="24" customHeight="1">
+      <c r="B150" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="B149" s="11"/>
+    <row r="151" spans="1:3" ht="24" customHeight="1">
+      <c r="B151" s="11" t="s">
+        <v>545</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
-      <formula1>AA25:AL25</formula1>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>AA27:AL27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
-      <formula1>AA33:AC33</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35" xr:uid="{00000000-0002-0000-0200-000001000000}">
+      <formula1>AA35:AC35</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39 B99 B95 B91" xr:uid="{00000000-0002-0000-0200-000002000000}">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B137" xr:uid="{00000000-0002-0000-0200-000007000000}">
+      <formula1>AA137:AD137</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
-      <formula1>AA135:AD135</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B144">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146" xr:uid="{00000000-0002-0000-0200-000008000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3210,10 +3416,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AD107"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3256,7 +3464,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -3282,8 +3492,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
@@ -3318,7 +3530,9 @@
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>200</v>
+      </c>
       <c r="AA19" s="6" t="s">
         <v>200</v>
       </c>
@@ -3352,7 +3566,9 @@
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>207</v>
+      </c>
       <c r="AA23" s="6" t="s">
         <v>207</v>
       </c>
@@ -3386,7 +3602,9 @@
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
-      <c r="B27" s="11"/>
+      <c r="B27" s="11" t="s">
+        <v>214</v>
+      </c>
       <c r="AA27" s="6" t="s">
         <v>214</v>
       </c>
@@ -3420,7 +3638,9 @@
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
+      <c r="B31" s="11">
+        <v>7200</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
@@ -3442,7 +3662,9 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="11"/>
+      <c r="B35" s="11">
+        <v>7200</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
@@ -3468,8 +3690,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="178" customHeight="1">
-      <c r="B40" s="11"/>
+    <row r="40" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B40" s="11" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
@@ -3509,7 +3733,9 @@
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
-      <c r="B49" s="11"/>
+      <c r="B49" s="11" t="s">
+        <v>236</v>
+      </c>
       <c r="AA49" s="6" t="s">
         <v>236</v>
       </c>
@@ -3569,7 +3795,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="178" customHeight="1">
+    <row r="58" spans="1:30" ht="177.95" customHeight="1">
       <c r="B58" s="11"/>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
@@ -3605,7 +3831,9 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="B66" s="11"/>
+      <c r="B66" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
@@ -3680,7 +3908,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="178" customHeight="1">
+    <row r="80" spans="1:3" ht="177.95" customHeight="1">
       <c r="B80" s="11"/>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
@@ -3707,7 +3935,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="178" customHeight="1">
+    <row r="85" spans="1:3" ht="177.95" customHeight="1">
       <c r="B85" s="11"/>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
@@ -3743,7 +3971,9 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="B93" s="11"/>
+      <c r="B93" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
@@ -3765,7 +3995,9 @@
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="B97" s="11"/>
+      <c r="B97" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
@@ -3791,7 +4023,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="178" customHeight="1">
+    <row r="102" spans="1:3" ht="177.95" customHeight="1">
       <c r="B102" s="11"/>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -3818,43 +4050,19 @@
         <v>53</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="178" customHeight="1">
+    <row r="107" spans="1:3" ht="177.95" customHeight="1">
       <c r="B107" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B49 B27 B23" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>AA19:AD19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
-      <formula1>AA23:AD23</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>AA27:AD27</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31 B97 B70 B53 B35" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49">
-      <formula1>AA49:AD49</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66 B93" xr:uid="{00000000-0002-0000-0300-000007000000}">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3862,10 +4070,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3908,7 +4118,9 @@
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -3934,8 +4146,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:30" ht="177.95" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
@@ -3957,7 +4171,12 @@
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>552</v>
+      </c>
       <c r="AA15" s="6" t="s">
         <v>300</v>
       </c>
@@ -3992,6 +4211,9 @@
     </row>
     <row r="19" spans="1:33" ht="24" customHeight="1">
       <c r="B19" s="11"/>
+      <c r="D19" s="6" t="s">
+        <v>553</v>
+      </c>
       <c r="AA19" s="6" t="s">
         <v>300</v>
       </c>
@@ -4025,7 +4247,12 @@
       </c>
     </row>
     <row r="23" spans="1:33" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>553</v>
+      </c>
       <c r="AA23" s="6" t="s">
         <v>311</v>
       </c>
@@ -4092,7 +4319,12 @@
       </c>
     </row>
     <row r="32" spans="1:33" ht="24" customHeight="1">
-      <c r="B32" s="11"/>
+      <c r="B32" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>554</v>
+      </c>
       <c r="AA32" s="6" t="s">
         <v>323</v>
       </c>
@@ -4116,20 +4348,14 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B19" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>AA15:AD15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>AA19:AD19</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 B28" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>AA23:AC23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
-      <formula1>AA28:AC28</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32" xr:uid="{00000000-0002-0000-0400-000004000000}">
       <formula1>AA32:AG32</formula1>
     </dataValidation>
   </dataValidations>
@@ -4138,10 +4364,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD187"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AE187"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="B174" sqref="B174"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4184,7 +4412,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -4210,8 +4440,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
@@ -4283,7 +4515,9 @@
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>353</v>
+      </c>
       <c r="AA23" s="6" t="s">
         <v>353</v>
       </c>
@@ -4314,7 +4548,9 @@
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
-      <c r="B27" s="11"/>
+      <c r="B27" s="11" t="s">
+        <v>359</v>
+      </c>
       <c r="AA27" s="6" t="s">
         <v>359</v>
       </c>
@@ -4348,7 +4584,12 @@
       </c>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
+      <c r="B31" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>556</v>
+      </c>
       <c r="AA31" s="6" t="s">
         <v>366</v>
       </c>
@@ -4408,8 +4649,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="178" customHeight="1">
-      <c r="B40" s="11"/>
+    <row r="40" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B40" s="11" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
@@ -4435,8 +4678,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="178" customHeight="1">
-      <c r="B45" s="11"/>
+    <row r="45" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B45" s="11" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="12" t="s">
@@ -4475,8 +4720,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:29" ht="178" customHeight="1">
-      <c r="B54" s="11"/>
+    <row r="54" spans="1:29" ht="177.95" customHeight="1">
+      <c r="B54" s="11" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
@@ -4502,7 +4749,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="178" customHeight="1">
+    <row r="59" spans="1:29" ht="177.95" customHeight="1">
       <c r="B59" s="11"/>
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
@@ -4525,7 +4772,12 @@
       </c>
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
-      <c r="B63" s="11"/>
+      <c r="B63" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>540</v>
+      </c>
       <c r="AA63" s="6" t="s">
         <v>396</v>
       </c>
@@ -4560,8 +4812,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="178" customHeight="1">
-      <c r="B68" s="11"/>
+    <row r="68" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B68" s="11" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
@@ -4587,8 +4841,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="178" customHeight="1">
-      <c r="B73" s="11"/>
+    <row r="73" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B73" s="11" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="A76" s="12" t="s">
@@ -4623,7 +4879,9 @@
       </c>
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
-      <c r="B81" s="11"/>
+      <c r="B81" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
       <c r="A83" s="9" t="s">
@@ -4645,7 +4903,9 @@
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
-      <c r="B85" s="11"/>
+      <c r="B85" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="12" t="s">
@@ -4680,7 +4940,12 @@
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
-      <c r="B93" s="11"/>
+      <c r="B93" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>562</v>
+      </c>
       <c r="AA93" s="6" t="s">
         <v>424</v>
       </c>
@@ -4740,8 +5005,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:30" ht="178" customHeight="1">
-      <c r="B102" s="11"/>
+    <row r="102" spans="1:30" ht="177.95" customHeight="1">
+      <c r="B102" s="11" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="105" spans="1:30" ht="24" customHeight="1">
       <c r="A105" s="12" t="s">
@@ -4836,8 +5103,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="119" spans="1:29" ht="178" customHeight="1">
-      <c r="B119" s="11"/>
+    <row r="119" spans="1:29" ht="177.95" customHeight="1">
+      <c r="B119" s="11" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="122" spans="1:29" ht="24" customHeight="1">
       <c r="A122" s="12" t="s">
@@ -4872,7 +5141,12 @@
       </c>
     </row>
     <row r="127" spans="1:29" ht="24" customHeight="1">
-      <c r="B127" s="11"/>
+      <c r="B127" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>564</v>
+      </c>
       <c r="AA127" s="6" t="s">
         <v>451</v>
       </c>
@@ -4917,6 +5191,9 @@
     </row>
     <row r="135" spans="1:29" ht="24" customHeight="1">
       <c r="B135" s="11"/>
+      <c r="D135" s="6" t="s">
+        <v>540</v>
+      </c>
       <c r="AA135" s="6" t="s">
         <v>451</v>
       </c>
@@ -4951,8 +5228,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="140" spans="1:29" ht="178" customHeight="1">
-      <c r="B140" s="11"/>
+    <row r="140" spans="1:29" ht="177.95" customHeight="1">
+      <c r="B140" s="11" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="143" spans="1:29" ht="24" customHeight="1">
       <c r="A143" s="12" t="s">
@@ -4987,7 +5266,9 @@
       </c>
     </row>
     <row r="148" spans="1:30" ht="24" customHeight="1">
-      <c r="B148" s="11"/>
+      <c r="B148" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="150" spans="1:30" ht="24" customHeight="1">
       <c r="A150" s="9" t="s">
@@ -5009,7 +5290,12 @@
       </c>
     </row>
     <row r="152" spans="1:30" ht="24" customHeight="1">
-      <c r="B152" s="11"/>
+      <c r="B152" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>565</v>
+      </c>
       <c r="AA152" s="6" t="s">
         <v>474</v>
       </c>
@@ -5045,7 +5331,9 @@
       </c>
     </row>
     <row r="157" spans="1:30" ht="24" customHeight="1">
-      <c r="B157" s="11"/>
+      <c r="B157" s="11" t="s">
+        <v>480</v>
+      </c>
       <c r="AA157" s="6" t="s">
         <v>480</v>
       </c>
@@ -5092,7 +5380,9 @@
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
-      <c r="B165" s="11"/>
+      <c r="B165" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
       <c r="A167" s="9" t="s">
@@ -5118,8 +5408,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="178" customHeight="1">
-      <c r="B170" s="11"/>
+    <row r="170" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B170" s="11" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
       <c r="A172" s="9" t="s">
@@ -5141,7 +5433,9 @@
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
-      <c r="B174" s="11"/>
+      <c r="B174" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="176" spans="1:3" ht="24" customHeight="1">
       <c r="A176" s="9" t="s">
@@ -5167,7 +5461,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="179" spans="1:29" ht="178" customHeight="1">
+    <row r="179" spans="1:29" ht="177.95" customHeight="1">
       <c r="B179" s="11"/>
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
@@ -5224,69 +5518,22 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>AA19:AE19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 B187 B152 B135 B127 B63" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>AA23:AC23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27 B157 B110 B93 B31" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>AA27:AD27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>AA31:AD31</formula1>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B114 B97" xr:uid="{00000000-0002-0000-0500-000004000000}">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
-      <formula1>AA63:AC63</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81 B174 B165 B148 B85" xr:uid="{00000000-0002-0000-0500-000006000000}">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B85">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
-      <formula1>AA93:AD93</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B110">
-      <formula1>AA110:AD110</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B127">
-      <formula1>AA127:AC127</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
-      <formula1>AA135:AC135</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B148">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B152">
-      <formula1>AA152:AC152</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B157">
-      <formula1>AA157:AD157</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B165">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B174">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B187">
-      <formula1>AA187:AC187</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5294,10 +5541,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5340,7 +5589,9 @@
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -5366,8 +5617,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:30" ht="177.95" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
@@ -5389,7 +5642,9 @@
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>524</v>
+      </c>
       <c r="AA15" s="6" t="s">
         <v>523</v>
       </c>
@@ -5429,6 +5684,9 @@
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11"/>
+      <c r="D20" s="6" t="s">
+        <v>540</v>
+      </c>
       <c r="AA20" s="6" t="s">
         <v>523</v>
       </c>
@@ -5443,12 +5701,9 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B20" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>AA15:AD15</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
-      <formula1>AA20:AD20</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
